--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col4a6</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col4a6</t>
-  </si>
-  <si>
-    <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6992243333333333</v>
+        <v>0.09175499999999999</v>
       </c>
       <c r="H2">
-        <v>2.097673</v>
+        <v>0.275265</v>
       </c>
       <c r="I2">
-        <v>0.6611310633483093</v>
+        <v>0.07639436047458779</v>
       </c>
       <c r="J2">
-        <v>0.6611310633483094</v>
+        <v>0.07639436047458781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>95.06343300706267</v>
+        <v>25.791600711315</v>
       </c>
       <c r="R2">
-        <v>855.570897063564</v>
+        <v>232.124406401835</v>
       </c>
       <c r="S2">
-        <v>0.4593327062260157</v>
+        <v>0.06333876353298044</v>
       </c>
       <c r="T2">
-        <v>0.4593327062260158</v>
+        <v>0.06333876353298046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6992243333333333</v>
+        <v>0.09175499999999999</v>
       </c>
       <c r="H3">
-        <v>2.097673</v>
+        <v>0.275265</v>
       </c>
       <c r="I3">
-        <v>0.6611310633483093</v>
+        <v>0.07639436047458779</v>
       </c>
       <c r="J3">
-        <v>0.6611310633483094</v>
+        <v>0.07639436047458781</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>0.3140370310353334</v>
+        <v>0.04120918911</v>
       </c>
       <c r="R3">
-        <v>2.826333279318</v>
+        <v>0.37088270199</v>
       </c>
       <c r="S3">
-        <v>0.001517381339572769</v>
+        <v>0.0001012011279811366</v>
       </c>
       <c r="T3">
-        <v>0.001517381339572769</v>
+        <v>0.0001012011279811366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6992243333333333</v>
+        <v>0.09175499999999999</v>
       </c>
       <c r="H4">
-        <v>2.097673</v>
+        <v>0.275265</v>
       </c>
       <c r="I4">
-        <v>0.6611310633483093</v>
+        <v>0.07639436047458779</v>
       </c>
       <c r="J4">
-        <v>0.6611310633483094</v>
+        <v>0.07639436047458781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>2.025292093910666</v>
+        <v>0.4085315218349999</v>
       </c>
       <c r="R4">
-        <v>18.227628845196</v>
+        <v>3.676783696515</v>
       </c>
       <c r="S4">
-        <v>0.009785917349787123</v>
+        <v>0.001003267759411448</v>
       </c>
       <c r="T4">
-        <v>0.009785917349787124</v>
+        <v>0.001003267759411448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6992243333333333</v>
+        <v>0.09175499999999999</v>
       </c>
       <c r="H5">
-        <v>2.097673</v>
+        <v>0.275265</v>
       </c>
       <c r="I5">
-        <v>0.6611310633483093</v>
+        <v>0.07639436047458779</v>
       </c>
       <c r="J5">
-        <v>0.6611310633483094</v>
+        <v>0.07639436047458781</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>39.42483080358978</v>
+        <v>4.866509947949998</v>
       </c>
       <c r="R5">
-        <v>354.823477232308</v>
+        <v>43.79858953154999</v>
       </c>
       <c r="S5">
-        <v>0.1904950584329337</v>
+        <v>0.01195112805421476</v>
       </c>
       <c r="T5">
-        <v>0.1904950584329337</v>
+        <v>0.01195112805421476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3408786666666667</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H6">
-        <v>1.022636</v>
+        <v>2.097673</v>
       </c>
       <c r="I6">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="J6">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>46.34434865520534</v>
+        <v>196.5463987027274</v>
       </c>
       <c r="R6">
-        <v>417.099137896848</v>
+        <v>1768.917588324547</v>
       </c>
       <c r="S6">
-        <v>0.2239291640613899</v>
+        <v>0.4826767446515819</v>
       </c>
       <c r="T6">
-        <v>0.2239291640613899</v>
+        <v>0.4826767446515819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3408786666666667</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H7">
-        <v>1.022636</v>
+        <v>2.097673</v>
       </c>
       <c r="I7">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="J7">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
-        <v>0.1530961085306667</v>
+        <v>0.3140370310353334</v>
       </c>
       <c r="R7">
-        <v>1.377864976776</v>
+        <v>2.826333279318</v>
       </c>
       <c r="S7">
-        <v>0.0007397381687113954</v>
+        <v>0.0007712091029937507</v>
       </c>
       <c r="T7">
-        <v>0.0007397381687113953</v>
+        <v>0.0007712091029937507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3408786666666667</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H8">
-        <v>1.022636</v>
+        <v>2.097673</v>
       </c>
       <c r="I8">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="J8">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>0.9873496039413333</v>
+        <v>3.113238308547</v>
       </c>
       <c r="R8">
-        <v>8.886146435472</v>
+        <v>28.019144776923</v>
       </c>
       <c r="S8">
-        <v>0.004770729934988393</v>
+        <v>0.007645460522361688</v>
       </c>
       <c r="T8">
-        <v>0.004770729934988393</v>
+        <v>0.007645460522361688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3408786666666667</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H9">
-        <v>1.022636</v>
+        <v>2.097673</v>
       </c>
       <c r="I9">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="J9">
-        <v>0.3223078268625576</v>
+        <v>0.5821676832136669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>19.21998866060623</v>
+        <v>37.08552312152332</v>
       </c>
       <c r="R9">
-        <v>172.979897945456</v>
+        <v>333.7697080937099</v>
       </c>
       <c r="S9">
-        <v>0.09286819469746792</v>
+        <v>0.09107426893672944</v>
       </c>
       <c r="T9">
-        <v>0.0928681946974679</v>
+        <v>0.09107426893672947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01751533333333333</v>
+        <v>0.410091</v>
       </c>
       <c r="H10">
-        <v>0.052546</v>
+        <v>1.230273</v>
       </c>
       <c r="I10">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117452</v>
       </c>
       <c r="J10">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>2.381306881858667</v>
+        <v>115.273318372883</v>
       </c>
       <c r="R10">
-        <v>21.431761936728</v>
+        <v>1037.459865355947</v>
       </c>
       <c r="S10">
-        <v>0.0115061291160978</v>
+        <v>0.2830871001689661</v>
       </c>
       <c r="T10">
-        <v>0.0115061291160978</v>
+        <v>0.2830871001689662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01751533333333333</v>
+        <v>0.410091</v>
       </c>
       <c r="H11">
-        <v>0.052546</v>
+        <v>1.230273</v>
       </c>
       <c r="I11">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117452</v>
       </c>
       <c r="J11">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>0.007866521537333334</v>
+        <v>0.184180890102</v>
       </c>
       <c r="R11">
-        <v>0.070798693836</v>
+        <v>1.657628010918</v>
       </c>
       <c r="S11">
-        <v>3.800988994432914E-05</v>
+        <v>0.000452309648247096</v>
       </c>
       <c r="T11">
-        <v>3.800988994432914E-05</v>
+        <v>0.0004523096482470961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01751533333333333</v>
+        <v>0.410091</v>
       </c>
       <c r="H12">
-        <v>0.052546</v>
+        <v>1.230273</v>
       </c>
       <c r="I12">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117452</v>
       </c>
       <c r="J12">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>0.05073288275466666</v>
+        <v>1.825896139947</v>
       </c>
       <c r="R12">
-        <v>0.456595944792</v>
+        <v>16.433065259523</v>
       </c>
       <c r="S12">
-        <v>0.0002451339236677567</v>
+        <v>0.004484018077759251</v>
       </c>
       <c r="T12">
-        <v>0.0002451339236677567</v>
+        <v>0.004484018077759251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01751533333333333</v>
+        <v>0.410091</v>
       </c>
       <c r="H13">
-        <v>0.052546</v>
+        <v>1.230273</v>
       </c>
       <c r="I13">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117452</v>
       </c>
       <c r="J13">
-        <v>0.01656110978913313</v>
+        <v>0.3414379563117453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>0.9875786928684445</v>
+        <v>21.75044336618999</v>
       </c>
       <c r="R13">
-        <v>8.888208235816</v>
+        <v>195.75399029571</v>
       </c>
       <c r="S13">
-        <v>0.004771836859423244</v>
+        <v>0.05341452841677275</v>
       </c>
       <c r="T13">
-        <v>0.004771836859423243</v>
+        <v>0.05341452841677277</v>
       </c>
     </row>
   </sheetData>
